--- a/src/static/assets/Excel template.xlsx
+++ b/src/static/assets/Excel template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -41,82 +41,10 @@
     <t>Giới tính</t>
   </si>
   <si>
-    <t>Thành phố</t>
-  </si>
-  <si>
-    <t>Quận/Huyện</t>
-  </si>
-  <si>
-    <t>Phường</t>
-  </si>
-  <si>
     <t>Địa chỉ chi tiết</t>
   </si>
   <si>
-    <t>Vũ Mạnh Đức</t>
-  </si>
-  <si>
-    <t>Tôn Nữ Thuý Ngân</t>
-  </si>
-  <si>
-    <t>Dương Thảo Nguyên</t>
-  </si>
-  <si>
-    <t>Đặng Minh Thắng</t>
-  </si>
-  <si>
-    <t>Mai Thị Thanh Thuỷ</t>
-  </si>
-  <si>
-    <t>Lê Văn Hiếu</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng Khoa</t>
-  </si>
-  <si>
-    <t>Nông Xuân Trinh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hạnh</t>
-  </si>
-  <si>
-    <t>Mai Ngọc Thắng</t>
-  </si>
-  <si>
-    <t>vmd211099@gmail.com</t>
-  </si>
-  <si>
-    <t>thuyngan9x99@gmail.com</t>
-  </si>
-  <si>
-    <t>thaonguyen.mxst@gmail.com</t>
-  </si>
-  <si>
-    <t>thanhthuy9xnm@gmail.com</t>
-  </si>
-  <si>
-    <t>ll.hiu29@gmail.com</t>
-  </si>
-  <si>
-    <t>ngdangkhoa1911@gmail.com</t>
-  </si>
-  <si>
-    <t>xuantrinhnong278@gmail.com</t>
-  </si>
-  <si>
-    <t>hanhnguyenzt@gmail.com</t>
-  </si>
-  <si>
-    <t>mnthang464@gmail.com</t>
-  </si>
-  <si>
-    <t>0911896133</t>
-  </si>
-  <si>
-    <t>0932174169</t>
-  </si>
-  <si>
-    <t>dang.minh.thang@gmail.com</t>
+    <t>Căn cước công dân</t>
   </si>
 </sst>
 </file>
@@ -436,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +378,7 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,136 +392,46 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2">
-        <v>36392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>34997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>36632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>35809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>35924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>35776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2">
-        <v>35191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2">
-        <v>35521</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
